--- a/biology/Botanique/Cactarium/Cactarium.xlsx
+++ b/biology/Botanique/Cactarium/Cactarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cactarium est un jardin spécialisé présentant les collections de cactus et plus largement les plantes qui poussent dans les régions désertiques. Les plantes collectionnées sont des plantes qui dans le cours de leur évolution se sont adaptées à des conditions climatiques de sécheresse extrême.
 </t>
@@ -511,7 +523,9 @@
           <t>Adaptation en milieu naturel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour survivre, ces espèces se sont adaptées aux conditions désertiques.
 Pour limiter la perte d'eau en fonction du régime climatique, elles ont, au cours de leur évolution :
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
